--- a/Technical/controls/FlyNetQuad/Quad Gains.xlsx
+++ b/Technical/controls/FlyNetQuad/Quad Gains.xlsx
@@ -230,7 +230,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -296,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,7 +601,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +658,7 @@
         <v>6.5</v>
       </c>
       <c r="F3" s="8">
-        <v>12</v>
+        <v>4.5</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>31</v>
@@ -675,7 +675,7 @@
         <v>0.15</v>
       </c>
       <c r="F4">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>32</v>
@@ -754,7 +754,7 @@
         <v>6.5</v>
       </c>
       <c r="F10" s="8">
-        <v>12</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -768,7 +768,7 @@
         <v>0.15</v>
       </c>
       <c r="F11">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -912,7 +912,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Technical/controls/FlyNetQuad/Quad Gains.xlsx
+++ b/Technical/controls/FlyNetQuad/Quad Gains.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="11475" windowHeight="8505"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="19640" windowHeight="14560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Att Control" sheetId="1" r:id="rId1"/>
     <sheet name="Pos Control" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -600,17 +605,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,7 +635,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -644,7 +649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -664,7 +669,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -681,7 +686,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -695,7 +700,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -709,7 +714,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -726,7 +731,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -743,7 +748,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -757,7 +762,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -771,7 +776,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -782,7 +787,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -793,7 +798,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -804,7 +809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -818,7 +823,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -829,7 +834,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -840,7 +845,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -851,7 +856,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -862,7 +867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -873,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -884,7 +889,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -903,7 +908,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -911,17 +920,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -941,7 +950,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27">
       <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
@@ -954,8 +963,11 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -968,8 +980,11 @@
       <c r="E3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27">
       <c r="A4" s="7" t="s">
         <v>38</v>
       </c>
@@ -982,11 +997,14 @@
       <c r="E4">
         <v>0.02</v>
       </c>
+      <c r="F4">
+        <v>0.08</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="27">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -1000,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="7" t="s">
         <v>40</v>
       </c>
@@ -1014,7 +1032,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="7" t="s">
         <v>41</v>
       </c>
@@ -1031,7 +1049,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="7" t="s">
         <v>67</v>
       </c>
@@ -1049,7 +1067,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>36</v>
       </c>
@@ -1064,7 +1082,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="7" t="s">
         <v>68</v>
       </c>
@@ -1076,7 +1094,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="7" t="s">
         <v>48</v>
       </c>
@@ -1090,7 +1108,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="7" t="s">
         <v>49</v>
       </c>
@@ -1101,10 +1119,10 @@
         <v>0.1</v>
       </c>
       <c r="F13">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="7" t="s">
         <v>50</v>
       </c>
@@ -1114,8 +1132,11 @@
       <c r="E14">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="7" t="s">
         <v>51</v>
       </c>
@@ -1125,8 +1146,11 @@
       <c r="E15">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="7" t="s">
         <v>52</v>
       </c>
@@ -1143,7 +1167,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="7" t="s">
         <v>53</v>
       </c>
@@ -1154,7 +1178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="7" t="s">
         <v>54</v>
       </c>
@@ -1165,7 +1189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="7" t="s">
         <v>55</v>
       </c>
@@ -1176,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="7" t="s">
         <v>56</v>
       </c>
@@ -1187,68 +1211,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="7" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1258,8 +1287,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>